--- a/output.xlsx
+++ b/output.xlsx
@@ -54,13 +54,14 @@
     <sheet name="7460" sheetId="45" r:id="rId45"/>
     <sheet name="7515" sheetId="46" r:id="rId46"/>
     <sheet name="8027" sheetId="47" r:id="rId47"/>
+    <sheet name="rankings" sheetId="48" r:id="rId48"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="409">
   <si>
     <t>Qualification number</t>
   </si>
@@ -284,13 +285,13 @@
     <t xml:space="preserve">Pretty slow bot, cycle time was slow. </t>
   </si>
   <si>
-    <t>Missed every shot because they bounced out looks like way too much spin</t>
+    <t>The balance was very off shooting was not accurate</t>
   </si>
   <si>
     <t>A ton of shots bounced out</t>
   </si>
   <si>
-    <t>The balance was very off shooting was not accurate</t>
+    <t>Missed every shot because they bounced out looks like way too much spin</t>
   </si>
   <si>
     <t>jerky movements, tried to climb but failed</t>
@@ -638,10 +639,10 @@
     <t>I think their intake stopped working so they moved to defense</t>
   </si>
   <si>
-    <t xml:space="preserve">Shot slow </t>
+    <t xml:space="preserve">Pretty good shooter was somewhat accurate limited to the lower hub only </t>
   </si>
   <si>
-    <t xml:space="preserve">Pretty good shooter was somewhat accurate limited to the lower hub only </t>
+    <t xml:space="preserve">Shot slow </t>
   </si>
   <si>
     <t>Sadge</t>
@@ -692,10 +693,10 @@
     <t xml:space="preserve">Swerve bot, bit unstable </t>
   </si>
   <si>
-    <t xml:space="preserve">A bit top heavy fine swerve </t>
+    <t>Can do defense. Autonomous is not accurate</t>
   </si>
   <si>
-    <t>Can do defense. Autonomous is not accurate</t>
+    <t xml:space="preserve">A bit top heavy fine swerve </t>
   </si>
   <si>
     <t>Missed its autonomic shots, but made many driver shots in lower hub</t>
@@ -743,16 +744,16 @@
     <t xml:space="preserve">Made all their shots in autonomous and teleportation. Took long amounts of time to collect shots. </t>
   </si>
   <si>
+    <t>Good low goal dumper</t>
+  </si>
+  <si>
     <t>missed a couple shots and it took a while for them to line up to shoot</t>
   </si>
   <si>
-    <t>Good low goal dumper</t>
+    <t xml:space="preserve">very fast, used their swerve effectively with decisive driving.  </t>
   </si>
   <si>
     <t>Cannot shoot well, tried multiple times to shoot without any cargo 😬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">very fast, used their swerve effectively with decisive driving.  </t>
   </si>
   <si>
     <t>Seemed light, missed some shots</t>
@@ -890,10 +891,10 @@
     <t xml:space="preserve">Got heavily defended, but had a pretty inaccurate shooter either way. </t>
   </si>
   <si>
-    <t>Fast and swerve drive, but inconsistent shooting and long cycle time</t>
+    <t xml:space="preserve">Broke their intake </t>
   </si>
   <si>
-    <t xml:space="preserve">Broke their intake </t>
+    <t>Fast and swerve drive, but inconsistent shooting and long cycle time</t>
   </si>
   <si>
     <t xml:space="preserve">Missed almost all of its shots, Long ranged, Aim isn't precise </t>
@@ -1001,19 +1002,19 @@
     <t xml:space="preserve">Played defense but suppressed they didn’t tip over, super unstable, then hung out in corner for rest of match😖 </t>
   </si>
   <si>
-    <t>Defensive bot, Missed all shots, Launched cargo at the judges.</t>
+    <t>Tall and wiggly</t>
   </si>
   <si>
-    <t>Tall and wiggly</t>
+    <t>Defensive bot, Missed all shots, Launched cargo at the judges.</t>
   </si>
   <si>
     <t xml:space="preserve">Good climb but slow and not very good offense </t>
   </si>
   <si>
-    <t xml:space="preserve">Made several shots in upper hub but didn’t make any in the upper hub. </t>
+    <t>Missed many of their shots, including autonomous.</t>
   </si>
   <si>
-    <t>Missed many of their shots, including autonomous.</t>
+    <t xml:space="preserve">Made several shots in upper hub but didn’t make any in the upper hub. </t>
   </si>
   <si>
     <t>Missed a lot of shots seems like alignment issues, not very agile pretty tippy.  Looks like it can go traversal but something happened and it couldn't go higher than the third</t>
@@ -1031,10 +1032,10 @@
     <t>They just kinda stooged the whole time</t>
   </si>
   <si>
-    <t xml:space="preserve">Great team effort. Slow shooter </t>
+    <t xml:space="preserve">Intake and shooter issues. </t>
   </si>
   <si>
-    <t xml:space="preserve">Intake and shooter issues. </t>
+    <t xml:space="preserve">Great team effort. Slow shooter </t>
   </si>
   <si>
     <t>Capable of at least the mid rung and likely the traversal but they had a fall. Not too much potential for offense but might have the mass for good defense</t>
@@ -1112,10 +1113,10 @@
     <t>Only low goal capable, and seemed kinda top heavy not the most agile</t>
   </si>
   <si>
-    <t xml:space="preserve">Slow shooter and needs to be very precise about everything to make the shot. </t>
+    <t xml:space="preserve">Top heavy and got a cargo stuck in the gap of the everybot leaving them useless for a minute </t>
   </si>
   <si>
-    <t xml:space="preserve">Top heavy and got a cargo stuck in the gap of the everybot leaving them useless for a minute </t>
+    <t xml:space="preserve">Slow shooter and needs to be very precise about everything to make the shot. </t>
   </si>
   <si>
     <t>The robot looked lost 💀</t>
@@ -1145,13 +1146,13 @@
     <t xml:space="preserve">Slow intake, missed majority of shots, very top heavy </t>
   </si>
   <si>
+    <t>Only low goal capable and missed a lot of the shots.  Very tippy</t>
+  </si>
+  <si>
     <t>They tried for a lot more low goal shots but missed</t>
   </si>
   <si>
     <t xml:space="preserve">Very slow and only shot in lower hub </t>
-  </si>
-  <si>
-    <t>Only low goal capable and missed a lot of the shots.  Very tippy</t>
   </si>
   <si>
     <t>Slow Climber</t>
@@ -1199,10 +1200,10 @@
     <t xml:space="preserve">Got to traversal bar, couldn’t shoot much. </t>
   </si>
   <si>
-    <t xml:space="preserve">Shot very slow. Didn’t do much. </t>
+    <t>Not very accurate shooter only going into lower and could only seem to Carry 1 ball in its intake.</t>
   </si>
   <si>
-    <t>Not very accurate shooter only going into lower and could only seem to Carry 1 ball in its intake.</t>
+    <t xml:space="preserve">Shot very slow. Didn’t do much. </t>
   </si>
   <si>
     <t>Tries defense but doesn’t really have the weight or power to be good at it. Could be good at climbing but I couldn’t tell</t>
@@ -1226,10 +1227,10 @@
     <t>their intake is bad</t>
   </si>
   <si>
-    <t xml:space="preserve">Lack of control of their swerve and they shoot 1 at a time  turret takes a while to aim </t>
+    <t xml:space="preserve">Accurate shot but didn’t shoot a lot </t>
   </si>
   <si>
-    <t xml:space="preserve">Accurate shot but didn’t shoot a lot </t>
+    <t xml:space="preserve">Lack of control of their swerve and they shoot 1 at a time  turret takes a while to aim </t>
   </si>
   <si>
     <t xml:space="preserve">Accurate shooter </t>
@@ -1248,6 +1249,45 @@
   </si>
   <si>
     <t>Swerve drive, but they were not able to push 27 while they were shooting even though they only defending 27</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Team0</t>
+  </si>
+  <si>
+    <t>Average Auto</t>
+  </si>
+  <si>
+    <t>Team1</t>
+  </si>
+  <si>
+    <t>Average Teleop</t>
+  </si>
+  <si>
+    <t>Team2</t>
+  </si>
+  <si>
+    <t>Average Climb</t>
+  </si>
+  <si>
+    <t>Team3</t>
+  </si>
+  <si>
+    <t>Average Total Points</t>
+  </si>
+  <si>
+    <t>Team4</t>
+  </si>
+  <si>
+    <t>Team5</t>
+  </si>
+  <si>
+    <t>Team6</t>
+  </si>
+  <si>
+    <t>P-value</t>
   </si>
 </sst>
 </file>
@@ -1271,12 +1311,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD580"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1306,10 +1352,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,7 +1549,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1615,7 +1664,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2215,10 +2264,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>18</c:v>
@@ -2338,7 +2387,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3235,7 +3284,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3569,10 +3618,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -3841,10 +3890,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11</c:v>
@@ -3958,7 +4007,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4837,7 +4886,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5006,10 +5055,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5171,16 +5220,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
@@ -5446,16 +5495,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11</c:v>
@@ -5569,7 +5618,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6378,7 +6427,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6712,10 +6761,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -6987,10 +7036,10 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
@@ -7110,7 +7159,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7980,7 +8029,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8712,7 +8761,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9417,7 +9466,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9532,7 +9581,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10237,7 +10286,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10397,10 +10446,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -10837,10 +10886,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14</c:v>
@@ -11125,7 +11174,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11848,7 +11897,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12727,7 +12776,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13423,7 +13472,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14232,7 +14281,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14410,10 +14459,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
@@ -14572,10 +14621,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
@@ -14838,28 +14887,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
@@ -14964,7 +15013,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -15130,10 +15179,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -15298,10 +15347,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -15570,10 +15619,10 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>13</c:v>
@@ -15852,7 +15901,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -16566,7 +16615,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -17436,7 +17485,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -17551,7 +17600,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -18256,7 +18305,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -18416,10 +18465,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -18850,10 +18899,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
@@ -19021,13 +19070,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
@@ -19141,7 +19190,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -19293,10 +19342,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>7165!$C$2:$C$15</c:f>
+              <c:f>7165!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -19313,10 +19362,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
@@ -19325,18 +19374,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -19476,10 +19513,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>7165!$D$2:$D$15</c:f>
+              <c:f>7165!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -19496,10 +19533,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
@@ -19508,19 +19545,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19666,7 +19691,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -19763,10 +19788,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>7165!$F$2:$F$15</c:f>
+              <c:f>7165!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -19780,13 +19805,13 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21</c:v>
@@ -19795,19 +19820,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19909,7 +19922,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -19956,10 +19969,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11.81818181818182</c:v>
+                  <c:v>12.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20665,13 +20678,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10</c:v>
@@ -20785,7 +20798,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -21499,7 +21512,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -21824,10 +21837,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -22096,10 +22109,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -22326,7 +22339,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -22648,10 +22661,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
@@ -22917,10 +22930,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
@@ -23040,7 +23053,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -23206,13 +23219,13 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16</c:v>
@@ -23326,7 +23339,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -24144,7 +24157,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -24867,7 +24880,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -25755,7 +25768,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -26469,7 +26482,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -27183,7 +27196,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -27298,7 +27311,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -28003,7 +28016,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -28867,7 +28880,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -29572,7 +29585,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -30454,7 +30467,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -31150,7 +31163,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -31968,7 +31981,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -32673,7 +32686,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -33555,7 +33568,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -34260,7 +34273,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Day 1 vs. Day 2</a:t>
+              <a:t>Day 1 vs. Day 2 (Total Points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -40691,13 +40704,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -40721,13 +40734,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -40751,13 +40764,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -40781,13 +40794,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -40811,13 +40824,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -42829,10 +42842,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08895</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>2.2619</v>
       </c>
     </row>
   </sheetData>
@@ -43152,10 +43162,7 @@
         <v>12.5</v>
       </c>
       <c r="C14">
-        <v>0.01486</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>0.27381</v>
       </c>
     </row>
   </sheetData>
@@ -43452,10 +43459,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-0.05147</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>-0.14286</v>
       </c>
     </row>
   </sheetData>
@@ -43729,10 +43733,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05422</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+        <v>0.17143</v>
       </c>
     </row>
   </sheetData>
@@ -44029,10 +44030,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06648999999999999</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>0.39286</v>
       </c>
     </row>
   </sheetData>
@@ -44352,10 +44350,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.05474</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>-0.34524</v>
       </c>
     </row>
   </sheetData>
@@ -44629,10 +44624,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08354</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+        <v>1.31429</v>
       </c>
     </row>
   </sheetData>
@@ -44952,10 +44944,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.15439</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>-0.39286</v>
       </c>
     </row>
   </sheetData>
@@ -45252,10 +45241,7 @@
         <v>14.29</v>
       </c>
       <c r="C13">
-        <v>0.19028</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>1.17857</v>
       </c>
     </row>
   </sheetData>
@@ -45575,10 +45561,7 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>0.08649999999999999</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>0.44048</v>
       </c>
     </row>
   </sheetData>
@@ -45875,10 +45858,7 @@
         <v>14.29</v>
       </c>
       <c r="C13">
-        <v>0.01568</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>0.32143</v>
       </c>
     </row>
   </sheetData>
@@ -46221,10 +46201,7 @@
         <v>44.44</v>
       </c>
       <c r="C15">
-        <v>-0.05973</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -46521,10 +46498,7 @@
         <v>14.29</v>
       </c>
       <c r="C13">
-        <v>0.11413</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>2.14286</v>
       </c>
     </row>
   </sheetData>
@@ -46625,13 +46599,13 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>192</v>
@@ -46654,13 +46628,13 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>193</v>
@@ -46867,10 +46841,7 @@
         <v>22.22</v>
       </c>
       <c r="C15">
-        <v>0.14062</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>0.18333</v>
       </c>
     </row>
   </sheetData>
@@ -47236,10 +47207,7 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.02728</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>0.12727</v>
       </c>
     </row>
   </sheetData>
@@ -47395,16 +47363,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
         <v>210</v>
@@ -47424,16 +47392,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
         <v>211</v>
@@ -47582,10 +47550,7 @@
         <v>11.11</v>
       </c>
       <c r="C15">
-        <v>-0.1978</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>-0.28333</v>
       </c>
     </row>
   </sheetData>
@@ -47905,10 +47870,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.07455000000000001</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>-0.65476</v>
       </c>
     </row>
   </sheetData>
@@ -48035,16 +47997,16 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
         <v>227</v>
@@ -48064,16 +48026,16 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
         <v>228</v>
@@ -48090,19 +48052,19 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="I6" t="s">
         <v>229</v>
@@ -48119,19 +48081,19 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
         <v>230</v>
@@ -48274,10 +48236,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01256</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>-0.27879</v>
       </c>
     </row>
   </sheetData>
@@ -48574,10 +48533,7 @@
         <v>14.29</v>
       </c>
       <c r="C13">
-        <v>0.15043</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>1.07143</v>
       </c>
     </row>
   </sheetData>
@@ -48704,19 +48660,19 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
-        <v>241</v>
+        <v>57</v>
       </c>
       <c r="Y4" t="s">
         <v>30</v>
@@ -48733,19 +48689,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="Y5" t="s">
         <v>31</v>
@@ -48943,10 +48899,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-0.08260000000000001</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>-0.61212</v>
       </c>
     </row>
   </sheetData>
@@ -49243,10 +49196,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-0.06988999999999999</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>-0.46429</v>
       </c>
     </row>
   </sheetData>
@@ -49612,10 +49562,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.27043</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>0.28485</v>
       </c>
     </row>
   </sheetData>
@@ -49935,10 +49882,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.22695</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>1.14286</v>
       </c>
     </row>
   </sheetData>
@@ -50235,10 +50179,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.24138</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>0.85714</v>
       </c>
     </row>
   </sheetData>
@@ -50535,10 +50476,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.30288</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>0.64286</v>
       </c>
     </row>
   </sheetData>
@@ -50633,19 +50571,19 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
         <v>276</v>
@@ -50662,19 +50600,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>277</v>
@@ -50881,10 +50819,7 @@
         <v>22.22</v>
       </c>
       <c r="C15">
-        <v>0.10155</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>0.13333</v>
       </c>
     </row>
   </sheetData>
@@ -51227,10 +51162,7 @@
         <v>11.11</v>
       </c>
       <c r="C15">
-        <v>0.27152</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>2.26667</v>
       </c>
     </row>
   </sheetData>
@@ -51550,10 +51482,7 @@
         <v>12.5</v>
       </c>
       <c r="C14">
-        <v>-0.40731</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>-0.46429</v>
       </c>
     </row>
   </sheetData>
@@ -51827,10 +51756,7 @@
         <v>33.33</v>
       </c>
       <c r="C12">
-        <v>-0.0363</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+        <v>-0.31429</v>
       </c>
     </row>
   </sheetData>
@@ -52127,10 +52053,7 @@
         <v>71.43000000000001</v>
       </c>
       <c r="C13">
-        <v>-0.58333</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>-0.07142999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -52234,10 +52157,10 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
         <v>313</v>
@@ -52263,10 +52186,10 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
         <v>314</v>
@@ -52315,16 +52238,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>316</v>
@@ -52344,16 +52267,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>317</v>
@@ -52396,7 +52319,7 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -52405,13 +52328,13 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -52419,7 +52342,7 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -52428,13 +52351,13 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>319</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -52496,10 +52419,7 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>0.18978</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>0.9636400000000001</v>
       </c>
     </row>
   </sheetData>
@@ -52652,19 +52572,19 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>15</v>
       </c>
       <c r="F5">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>323</v>
@@ -52681,19 +52601,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>15</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
         <v>324</v>
@@ -52842,10 +52762,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-0.09112000000000001</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>-0.31667</v>
       </c>
     </row>
   </sheetData>
@@ -53165,10 +53082,7 @@
         <v>12.5</v>
       </c>
       <c r="C14">
-        <v>0.18224</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>3.4881</v>
       </c>
     </row>
   </sheetData>
@@ -53488,10 +53402,7 @@
         <v>12.5</v>
       </c>
       <c r="C14">
-        <v>0.11929</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>1.83333</v>
       </c>
     </row>
   </sheetData>
@@ -53788,10 +53699,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.20424</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>0.78571</v>
       </c>
     </row>
   </sheetData>
@@ -54088,10 +53996,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02883</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>0.17857</v>
       </c>
     </row>
   </sheetData>
@@ -54186,7 +54091,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -54195,10 +54100,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -54215,7 +54120,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -54224,10 +54129,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>351</v>
@@ -54411,10 +54316,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>0.11905</v>
       </c>
     </row>
   </sheetData>
@@ -54428,7 +54330,7 @@
   <sheetPr>
     <tabColor rgb="FF8B7675"/>
   </sheetPr>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -54472,7 +54374,7 @@
         <v>27</v>
       </c>
       <c r="Z1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -54602,13 +54504,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
         <v>361</v>
@@ -54617,7 +54519,7 @@
         <v>32</v>
       </c>
       <c r="Z6">
-        <v>11.81818181818182</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -54625,19 +54527,19 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>362</v>
@@ -54646,7 +54548,7 @@
         <v>33</v>
       </c>
       <c r="Z7">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -54654,19 +54556,19 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>363</v>
@@ -54729,13 +54631,13 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -54745,137 +54647,42 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="B12">
-        <v>60</v>
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="B13">
-        <v>60</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="B14">
-        <v>60</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="B15">
-        <v>60</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
+      <c r="B16">
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>3.86</v>
-      </c>
-      <c r="D16">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="E16">
-        <v>3.86</v>
-      </c>
-      <c r="F16">
-        <v>15.93</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20">
-        <v>7.14</v>
-      </c>
-      <c r="C20">
-        <v>0.26697</v>
-      </c>
-      <c r="D20">
-        <v>0.0002237403994324271</v>
+        <v>1.15758</v>
       </c>
     </row>
   </sheetData>
@@ -55172,10 +54979,7 @@
         <v>71.43000000000001</v>
       </c>
       <c r="C13">
-        <v>0.47297</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>1.07143</v>
       </c>
     </row>
   </sheetData>
@@ -55495,10 +55299,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.1383</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>-0.92857</v>
       </c>
     </row>
   </sheetData>
@@ -55567,16 +55368,16 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>379</v>
@@ -55596,16 +55397,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
         <v>380</v>
@@ -55841,10 +55642,7 @@
         <v>55.56</v>
       </c>
       <c r="C15">
-        <v>0.4265</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>0.91667</v>
       </c>
     </row>
   </sheetData>
@@ -55913,16 +55711,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>388</v>
@@ -55942,16 +55740,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="I3" t="s">
         <v>389</v>
@@ -56164,15 +55962,2150 @@
         <v>12.5</v>
       </c>
       <c r="C14">
-        <v>-0.19798</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>-1.03571</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>1787</v>
+      </c>
+      <c r="G2" s="2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="J2">
+        <v>4547</v>
+      </c>
+      <c r="K2" s="2">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="L2">
+        <v>5740</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3.4881</v>
+      </c>
+      <c r="N2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2614</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11.71</v>
+      </c>
+      <c r="D3">
+        <v>2614</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18.57</v>
+      </c>
+      <c r="F3">
+        <v>554</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>1787</v>
+      </c>
+      <c r="I3" s="2">
+        <v>39.33</v>
+      </c>
+      <c r="J3">
+        <v>7274</v>
+      </c>
+      <c r="K3" s="2">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="L3">
+        <v>4150</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.26667</v>
+      </c>
+      <c r="N3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3539</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.57</v>
+      </c>
+      <c r="D4">
+        <v>1787</v>
+      </c>
+      <c r="E4" s="2">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>7460</v>
+      </c>
+      <c r="G4" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="H4">
+        <v>2614</v>
+      </c>
+      <c r="I4" s="2">
+        <v>34.57</v>
+      </c>
+      <c r="J4">
+        <v>7515</v>
+      </c>
+      <c r="K4" s="2">
+        <v>55.56</v>
+      </c>
+      <c r="L4">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.2619</v>
+      </c>
+      <c r="N4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2252</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="D5">
+        <v>325</v>
+      </c>
+      <c r="E5" s="2">
+        <v>13.78</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>3539</v>
+      </c>
+      <c r="I5" s="2">
+        <v>34.29</v>
+      </c>
+      <c r="J5">
+        <v>117</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44.44</v>
+      </c>
+      <c r="L5">
+        <v>2614</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2.14286</v>
+      </c>
+      <c r="N5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4050</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.43</v>
+      </c>
+      <c r="D6">
+        <v>3539</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12.14</v>
+      </c>
+      <c r="F6">
+        <v>3539</v>
+      </c>
+      <c r="G6" s="2">
+        <v>11.57</v>
+      </c>
+      <c r="H6">
+        <v>554</v>
+      </c>
+      <c r="I6" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="J6">
+        <v>4467</v>
+      </c>
+      <c r="K6" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="L6">
+        <v>144</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.83333</v>
+      </c>
+      <c r="N6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1787</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.33</v>
+      </c>
+      <c r="D7">
+        <v>1511</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11.71</v>
+      </c>
+      <c r="F7">
+        <v>5492</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10.78</v>
+      </c>
+      <c r="H7">
+        <v>1511</v>
+      </c>
+      <c r="I7" s="2">
+        <v>23.71</v>
+      </c>
+      <c r="J7">
+        <v>4991</v>
+      </c>
+      <c r="K7" s="2">
+        <v>30</v>
+      </c>
+      <c r="L7">
+        <v>156</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1.67273</v>
+      </c>
+      <c r="N7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1511</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.14</v>
+      </c>
+      <c r="D8">
+        <v>144</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9.25</v>
+      </c>
+      <c r="F8">
+        <v>117</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10.11</v>
+      </c>
+      <c r="H8">
+        <v>325</v>
+      </c>
+      <c r="I8" s="2">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>2252</v>
+      </c>
+      <c r="K8" s="2">
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>1787</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.31429</v>
+      </c>
+      <c r="N8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>695</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>120</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9.25</v>
+      </c>
+      <c r="F9">
+        <v>4150</v>
+      </c>
+      <c r="G9" s="2">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="H9">
+        <v>7460</v>
+      </c>
+      <c r="I9" s="2">
+        <v>23</v>
+      </c>
+      <c r="J9">
+        <v>2641</v>
+      </c>
+      <c r="K9" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="L9">
+        <v>2053</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1.17857</v>
+      </c>
+      <c r="N9">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>302</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="F10">
+        <v>5740</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="H10">
+        <v>302</v>
+      </c>
+      <c r="I10" s="2">
+        <v>21.78</v>
+      </c>
+      <c r="J10">
+        <v>4145</v>
+      </c>
+      <c r="K10" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="L10">
+        <v>7165</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.15758</v>
+      </c>
+      <c r="N10">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3504</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="D11">
+        <v>554</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8.57</v>
+      </c>
+      <c r="F11">
+        <v>379</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="H11">
+        <v>5740</v>
+      </c>
+      <c r="I11" s="2">
+        <v>20.38</v>
+      </c>
+      <c r="J11">
+        <v>2656</v>
+      </c>
+      <c r="K11" s="2">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>120</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1.14286</v>
+      </c>
+      <c r="N11">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>302</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.67</v>
+      </c>
+      <c r="D12">
+        <v>3504</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="F12">
+        <v>4991</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>3504</v>
+      </c>
+      <c r="I12" s="2">
+        <v>19.6</v>
+      </c>
+      <c r="J12">
+        <v>2614</v>
+      </c>
+      <c r="K12" s="2">
+        <v>14.29</v>
+      </c>
+      <c r="L12">
+        <v>7274</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.07143</v>
+      </c>
+      <c r="N12">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>554</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>291</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="F13">
+        <v>2603</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>2603</v>
+      </c>
+      <c r="I13" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>2603</v>
+      </c>
+      <c r="K13" s="2">
+        <v>14.29</v>
+      </c>
+      <c r="L13">
+        <v>3539</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.07143</v>
+      </c>
+      <c r="N13">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5740</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>156</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="F14">
+        <v>3814</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="H14">
+        <v>4150</v>
+      </c>
+      <c r="I14" s="2">
+        <v>17.89</v>
+      </c>
+      <c r="J14">
+        <v>3539</v>
+      </c>
+      <c r="K14" s="2">
+        <v>14.29</v>
+      </c>
+      <c r="L14">
+        <v>4991</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.9636400000000001</v>
+      </c>
+      <c r="N14">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2051</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D15">
+        <v>4050</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6.43</v>
+      </c>
+      <c r="F15">
+        <v>3260</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="H15">
+        <v>144</v>
+      </c>
+      <c r="I15" s="2">
+        <v>17.75</v>
+      </c>
+      <c r="J15">
+        <v>2053</v>
+      </c>
+      <c r="K15" s="2">
+        <v>14.29</v>
+      </c>
+      <c r="L15">
+        <v>325</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.93333</v>
+      </c>
+      <c r="N15">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7460</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="D16">
+        <v>695</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5.67</v>
+      </c>
+      <c r="F16">
+        <v>302</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>3814</v>
+      </c>
+      <c r="I16" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="J16">
+        <v>4269</v>
+      </c>
+      <c r="K16" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="L16">
+        <v>7515</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.91667</v>
+      </c>
+      <c r="N16">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2603</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="D17">
+        <v>2051</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5.62</v>
+      </c>
+      <c r="F17">
+        <v>7165</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H17">
+        <v>695</v>
+      </c>
+      <c r="I17" s="2">
+        <v>16.67</v>
+      </c>
+      <c r="J17">
+        <v>144</v>
+      </c>
+      <c r="K17" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="L17">
+        <v>4050</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.85714</v>
+      </c>
+      <c r="N17">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>325</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5.11</v>
+      </c>
+      <c r="D18">
+        <v>3954</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.57</v>
+      </c>
+      <c r="F18">
+        <v>4027</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H18">
+        <v>120</v>
+      </c>
+      <c r="I18" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="J18">
+        <v>291</v>
+      </c>
+      <c r="K18" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="L18">
+        <v>378</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.78571</v>
+      </c>
+      <c r="N18">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>291</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>4145</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="F19">
+        <v>4085</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="H19">
+        <v>5492</v>
+      </c>
+      <c r="I19" s="2">
+        <v>15.56</v>
+      </c>
+      <c r="J19">
+        <v>379</v>
+      </c>
+      <c r="K19" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="L19">
+        <v>5842</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.78571</v>
+      </c>
+      <c r="N19">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4150</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.89</v>
+      </c>
+      <c r="D20">
+        <v>7460</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="F20">
+        <v>3504</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="H20">
+        <v>2252</v>
+      </c>
+      <c r="I20" s="2">
+        <v>15.38</v>
+      </c>
+      <c r="J20">
+        <v>5740</v>
+      </c>
+      <c r="K20" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="L20">
+        <v>4085</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.64286</v>
+      </c>
+      <c r="N20">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>378</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="D21">
+        <v>3814</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="F21">
+        <v>1511</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4.86</v>
+      </c>
+      <c r="H21">
+        <v>2051</v>
+      </c>
+      <c r="I21" s="2">
+        <v>15.12</v>
+      </c>
+      <c r="J21">
+        <v>8027</v>
+      </c>
+      <c r="K21" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="L21">
+        <v>2252</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.44048</v>
+      </c>
+      <c r="N21">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>144</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="D22">
+        <v>5740</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>4269</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="H22">
+        <v>156</v>
+      </c>
+      <c r="I22" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="J22">
+        <v>3201</v>
+      </c>
+      <c r="K22" s="2">
+        <v>11.11</v>
+      </c>
+      <c r="L22">
+        <v>1511</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.39286</v>
+      </c>
+      <c r="N22">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2641</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4.22</v>
+      </c>
+      <c r="D23">
+        <v>2603</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.86</v>
+      </c>
+      <c r="F23">
+        <v>4467</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4.33</v>
+      </c>
+      <c r="H23">
+        <v>4050</v>
+      </c>
+      <c r="I23" s="2">
+        <v>14.71</v>
+      </c>
+      <c r="J23">
+        <v>4150</v>
+      </c>
+      <c r="K23" s="2">
+        <v>11.11</v>
+      </c>
+      <c r="L23">
+        <v>2603</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.32143</v>
+      </c>
+      <c r="N23">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3954</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3260</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.62</v>
+      </c>
+      <c r="F24">
+        <v>2614</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4.29</v>
+      </c>
+      <c r="H24">
+        <v>379</v>
+      </c>
+      <c r="I24" s="2">
+        <v>14.38</v>
+      </c>
+      <c r="J24">
+        <v>7165</v>
+      </c>
+      <c r="K24" s="2">
+        <v>10</v>
+      </c>
+      <c r="L24">
+        <v>4027</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.28485</v>
+      </c>
+      <c r="N24">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>156</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>2252</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4.62</v>
+      </c>
+      <c r="F25">
+        <v>7515</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4.22</v>
+      </c>
+      <c r="H25">
+        <v>3260</v>
+      </c>
+      <c r="I25" s="2">
+        <v>14.12</v>
+      </c>
+      <c r="J25">
+        <v>156</v>
+      </c>
+      <c r="K25" s="2">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>379</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.27381</v>
+      </c>
+      <c r="N25">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2053</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>2641</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.56</v>
+      </c>
+      <c r="F26">
+        <v>2641</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4.22</v>
+      </c>
+      <c r="H26">
+        <v>291</v>
+      </c>
+      <c r="I26" s="2">
+        <v>13.25</v>
+      </c>
+      <c r="J26">
+        <v>6834</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>2641</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.18333</v>
+      </c>
+      <c r="N26">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3814</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D27">
+        <v>8027</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="F27">
+        <v>156</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H27">
+        <v>4991</v>
+      </c>
+      <c r="I27" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="J27">
+        <v>7460</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>6032</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.17857</v>
+      </c>
+      <c r="N27">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4145</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="D28">
+        <v>4027</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="F28">
+        <v>325</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4.11</v>
+      </c>
+      <c r="H28">
+        <v>3954</v>
+      </c>
+      <c r="I28" s="2">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>4085</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>695</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.17143</v>
+      </c>
+      <c r="N28">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5492</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="D29">
+        <v>378</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>2051</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>2641</v>
+      </c>
+      <c r="I29" s="2">
+        <v>13</v>
+      </c>
+      <c r="J29">
+        <v>5492</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>4145</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.13333</v>
+      </c>
+      <c r="N29">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6834</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D30">
+        <v>3201</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="F30">
+        <v>6032</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>4027</v>
+      </c>
+      <c r="I30" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="J30">
+        <v>5842</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>2656</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.12727</v>
+      </c>
+      <c r="N30">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>8027</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D31">
+        <v>4467</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="F31">
+        <v>8027</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>117</v>
+      </c>
+      <c r="I31" s="2">
+        <v>12.78</v>
+      </c>
+      <c r="J31">
+        <v>6032</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>6834</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.11905</v>
+      </c>
+      <c r="N31">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4085</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="D32">
+        <v>7165</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="F32">
+        <v>695</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>4145</v>
+      </c>
+      <c r="I32" s="2">
+        <v>12.22</v>
+      </c>
+      <c r="J32">
+        <v>27</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>4547</v>
+      </c>
+      <c r="M32" s="2">
+        <v>-0.07142999999999999</v>
+      </c>
+      <c r="N32">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4027</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="D33">
+        <v>6834</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F33">
+        <v>3201</v>
+      </c>
+      <c r="G33" s="2">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>7165</v>
+      </c>
+      <c r="I33" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="J33">
+        <v>4050</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>554</v>
+      </c>
+      <c r="M33" s="2">
+        <v>-0.14286</v>
+      </c>
+      <c r="N33">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4467</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="D34">
+        <v>5842</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="F34">
+        <v>144</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="H34">
+        <v>8027</v>
+      </c>
+      <c r="I34" s="2">
+        <v>11.88</v>
+      </c>
+      <c r="J34">
+        <v>4027</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>302</v>
+      </c>
+      <c r="M34" s="2">
+        <v>-0.18333</v>
+      </c>
+      <c r="N34">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3260</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="D35">
+        <v>4150</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="F35">
+        <v>3954</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="H35">
+        <v>4467</v>
+      </c>
+      <c r="I35" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="J35">
+        <v>3954</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>3504</v>
+      </c>
+      <c r="M35" s="2">
+        <v>-0.27879</v>
+      </c>
+      <c r="N35">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4269</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>2656</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="F36">
+        <v>4145</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="H36">
+        <v>378</v>
+      </c>
+      <c r="I36" s="2">
+        <v>10.75</v>
+      </c>
+      <c r="J36">
+        <v>3814</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>3201</v>
+      </c>
+      <c r="M36" s="2">
+        <v>-0.28333</v>
+      </c>
+      <c r="N36">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7165</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>4269</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="F37">
+        <v>2053</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="H37">
+        <v>4269</v>
+      </c>
+      <c r="I37" s="2">
+        <v>10.62</v>
+      </c>
+      <c r="J37">
+        <v>3504</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>4467</v>
+      </c>
+      <c r="M37" s="2">
+        <v>-0.31429</v>
+      </c>
+      <c r="N37">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2656</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="D38">
+        <v>2053</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="F38">
+        <v>5842</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="H38">
+        <v>3201</v>
+      </c>
+      <c r="I38" s="2">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="J38">
+        <v>2051</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>5492</v>
+      </c>
+      <c r="M38" s="2">
+        <v>-0.31667</v>
+      </c>
+      <c r="N38">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>117</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="D39">
+        <v>6032</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="F39">
+        <v>6834</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H39">
+        <v>2053</v>
+      </c>
+      <c r="I39" s="2">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="J39">
+        <v>1787</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1708</v>
+      </c>
+      <c r="M39" s="2">
+        <v>-0.34524</v>
+      </c>
+      <c r="N39">
+        <v>5492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6032</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="D40">
+        <v>379</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F40">
+        <v>2656</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="H40">
+        <v>4085</v>
+      </c>
+      <c r="I40" s="2">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="J40">
+        <v>1708</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>117</v>
+      </c>
+      <c r="M40" s="2">
+        <v>-0.35</v>
+      </c>
+      <c r="N40">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>379</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D41">
+        <v>7515</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2.22</v>
+      </c>
+      <c r="F41">
+        <v>2252</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="H41">
+        <v>6834</v>
+      </c>
+      <c r="I41" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J41">
+        <v>1511</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>2051</v>
+      </c>
+      <c r="M41" s="2">
+        <v>-0.39286</v>
+      </c>
+      <c r="N41">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7515</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="D42">
+        <v>4991</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F42">
+        <v>378</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>6032</v>
+      </c>
+      <c r="I42" s="2">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="J42">
+        <v>695</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>3954</v>
+      </c>
+      <c r="M42" s="2">
+        <v>-0.46429</v>
+      </c>
+      <c r="N42">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1708</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="D43">
+        <v>1708</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="F43">
+        <v>1708</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="H43">
+        <v>7515</v>
+      </c>
+      <c r="I43" s="2">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="J43">
+        <v>554</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>4269</v>
+      </c>
+      <c r="M43" s="2">
+        <v>-0.46429</v>
+      </c>
+      <c r="N43">
+        <v>6834</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4991</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="D44">
+        <v>5492</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="F44">
+        <v>7274</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="H44">
+        <v>2656</v>
+      </c>
+      <c r="I44" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="J44">
+        <v>378</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>3814</v>
+      </c>
+      <c r="M44" s="2">
+        <v>-0.61212</v>
+      </c>
+      <c r="N44">
+        <v>7165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>3201</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>4085</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.14</v>
+      </c>
+      <c r="F45">
+        <v>291</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H45">
+        <v>5842</v>
+      </c>
+      <c r="I45" s="2">
+        <v>7.57</v>
+      </c>
+      <c r="J45">
+        <v>325</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>3260</v>
+      </c>
+      <c r="M45" s="2">
+        <v>-0.65476</v>
+      </c>
+      <c r="N45">
+        <v>7274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7274</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>7274</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.57</v>
+      </c>
+      <c r="F46">
+        <v>4050</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="H46">
+        <v>1708</v>
+      </c>
+      <c r="I46" s="2">
+        <v>5.88</v>
+      </c>
+      <c r="J46">
+        <v>302</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>7460</v>
+      </c>
+      <c r="M46" s="2">
+        <v>-0.92857</v>
+      </c>
+      <c r="N46">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4547</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="D47">
+        <v>117</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>120</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>7274</v>
+      </c>
+      <c r="I47" s="2">
+        <v>4.29</v>
+      </c>
+      <c r="J47">
+        <v>120</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>291</v>
+      </c>
+      <c r="M47" s="2">
+        <v>-0.92857</v>
+      </c>
+      <c r="N47">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5842</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="D48">
+        <v>4547</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>4547</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>4547</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="J48">
+        <v>3260</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>8027</v>
+      </c>
+      <c r="M48" s="2">
+        <v>-1.03571</v>
+      </c>
+      <c r="N48">
+        <v>8027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -56320,19 +58253,19 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>74</v>
@@ -56378,19 +58311,19 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
         <v>76</v>
@@ -56533,10 +58466,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>0.29206</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>1.67273</v>
       </c>
     </row>
   </sheetData>
@@ -56856,10 +58786,7 @@
         <v>12.5</v>
       </c>
       <c r="C14">
-        <v>-0.1426</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>-0.92857</v>
       </c>
     </row>
   </sheetData>
@@ -57202,10 +59129,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-0.13165</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>-0.18333</v>
       </c>
     </row>
   </sheetData>
@@ -57548,10 +59472,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.11864</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>0.93333</v>
       </c>
     </row>
   </sheetData>
@@ -57871,10 +59792,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.10802</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>0.78571</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -42544,10 +42544,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -42864,10 +42861,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -43184,10 +43178,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -43481,10 +43472,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -43755,10 +43743,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -44052,10 +44037,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -44372,10 +44354,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -44646,10 +44625,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -44966,10 +44942,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -45263,10 +45236,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -45583,10 +45553,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -45880,10 +45847,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -46223,10 +46187,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -46520,10 +46481,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -46863,10 +46821,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -47229,10 +47184,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -47572,10 +47524,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -47892,10 +47841,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -48258,10 +48204,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -48555,10 +48498,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -48921,10 +48861,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -49218,10 +49155,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -49584,10 +49518,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -49904,10 +49835,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -50201,10 +50129,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -50498,10 +50423,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -50841,10 +50763,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -51184,10 +51103,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -51504,10 +51420,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -51778,10 +51691,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -52075,10 +51985,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -52441,10 +52348,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -52784,10 +52688,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -53104,10 +53005,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -53424,10 +53322,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -53721,10 +53616,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -54018,10 +53910,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -54338,10 +54227,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -54704,10 +54590,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -55001,10 +54884,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -55321,10 +55201,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -55664,10 +55541,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -58122,10 +57996,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -58488,10 +58359,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -58808,10 +58676,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -59151,10 +59016,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>
@@ -59494,10 +59356,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="150.7109375" customWidth="1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,57 +8,109 @@
   </bookViews>
   <sheets>
     <sheet name="rankings" sheetId="1" r:id="rId1"/>
+    <sheet name="1787" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
   <si>
+    <t>Team0</t>
+  </si>
+  <si>
+    <t>Total Points</t>
+  </si>
+  <si>
     <t>Team1</t>
   </si>
   <si>
-    <t>Average Total Points</t>
+    <t>Auto Points</t>
   </si>
   <si>
     <t>Team2</t>
   </si>
   <si>
-    <t>Average Auto Points</t>
+    <t># of Cycles</t>
   </si>
   <si>
     <t>Team3</t>
   </si>
   <si>
-    <t>Average Number of Cycles</t>
+    <t>Balance Points</t>
   </si>
   <si>
     <t>Team4</t>
   </si>
   <si>
-    <t>Average Charge Station Points</t>
+    <t>LSRL Slope</t>
   </si>
   <si>
     <t>Team5</t>
   </si>
   <si>
-    <t>LSRL Slope</t>
+    <t>Defense %</t>
   </si>
   <si>
     <t>Team6</t>
   </si>
   <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Match #</t>
+  </si>
+  <si>
+    <t>Teleop Points</t>
+  </si>
+  <si>
+    <t>High Points</t>
+  </si>
+  <si>
+    <t>Mid Points</t>
+  </si>
+  <si>
+    <t>Low Points</t>
+  </si>
+  <si>
+    <t>Cone Points</t>
+  </si>
+  <si>
+    <t>Cube Points</t>
+  </si>
+  <si>
+    <t># of Links</t>
+  </si>
+  <si>
+    <t>Averages:</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>daniel</t>
+  </si>
+  <si>
+    <t>ben</t>
+  </si>
+  <si>
+    <t>oeunthoentuhoenthutnoeu</t>
+  </si>
+  <si>
+    <t>ontehu</t>
+  </si>
+  <si>
     <t>Defense Percentage</t>
-  </si>
-  <si>
-    <t>Team7</t>
-  </si>
-  <si>
-    <t>P-value</t>
   </si>
 </sst>
 </file>
@@ -431,13 +483,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -529,6 +581,227 @@
       </c>
       <c r="N2">
         <v>1787</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>37</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>23.5</v>
+      </c>
+      <c r="L4">
+        <v>7.5</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>-64</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -111,6 +111,42 @@
   </si>
   <si>
     <t>Defense Percentage</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Docked (Engaged)</t>
+  </si>
+  <si>
+    <t>Docked (Not Engaged)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Offense</t>
+  </si>
+  <si>
+    <t>Not Sure</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
   </si>
 </sst>
 </file>
@@ -190,6 +226,821 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>1787!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>1787!$AY$1:$AY$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Match #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Placement of Game Pieces</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>1787!$AZ$1:$AZ$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1787!$BA$1:$BA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Autonomous Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>1787!$BB$1:$BB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1787!$BC$1:$BC$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Teleoperated Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>1787!$BD$1:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1787!$BE$1:$BE$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Defense Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>1787!$BF$1:$BF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Offense</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Not Sure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Defense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1787!$BG$1:$BG$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Day 1 vs. Day 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>1787!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>1787!$BH$1:$BH$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1787!$BI$1:$BI$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50060001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50060002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,7 +1441,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:BI8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,7 +1462,7 @@
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:61">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -655,8 +1506,41 @@
       <c r="P1" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="AY1">
+        <v>74</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA1">
+        <v>10</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC1">
+        <v>1</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE1">
+        <v>1</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG1">
+        <v>1</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:61">
       <c r="B2">
         <v>1</v>
       </c>
@@ -699,8 +1583,41 @@
       <c r="P2" t="s">
         <v>29</v>
       </c>
+      <c r="AY2">
+        <v>10</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:61">
       <c r="B3">
         <v>2</v>
       </c>
@@ -743,8 +1660,32 @@
       <c r="P3" t="s">
         <v>30</v>
       </c>
+      <c r="AZ3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:61">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -785,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:61">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -796,15 +1737,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:61">
       <c r="A8">
         <v>-64</v>
       </c>
       <c r="B8">
         <v>50</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -8,55 +8,57 @@
   </bookViews>
   <sheets>
     <sheet name="rankings" sheetId="1" r:id="rId1"/>
-    <sheet name="1787" sheetId="2" r:id="rId2"/>
+    <sheet name="0" sheetId="2" r:id="rId2"/>
+    <sheet name="27" sheetId="3" r:id="rId3"/>
+    <sheet name="1787" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>Team0</t>
+    <t>Team1</t>
   </si>
   <si>
     <t>Total Points</t>
   </si>
   <si>
-    <t>Team1</t>
+    <t>Team2</t>
   </si>
   <si>
     <t>Auto Points</t>
   </si>
   <si>
-    <t>Team2</t>
+    <t>Team3</t>
   </si>
   <si>
     <t># of Cycles</t>
   </si>
   <si>
-    <t>Team3</t>
+    <t>Team4</t>
   </si>
   <si>
     <t>Balance Points</t>
   </si>
   <si>
-    <t>Team4</t>
+    <t>Team5</t>
   </si>
   <si>
     <t>LSRL Slope</t>
   </si>
   <si>
-    <t>Team5</t>
+    <t>Team6</t>
   </si>
   <si>
     <t>Defense %</t>
   </si>
   <si>
-    <t>Team6</t>
+    <t>Team7</t>
   </si>
   <si>
     <t>P-value</t>
@@ -101,6 +103,60 @@
     <t>daniel</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>yduihuih</t>
+  </si>
+  <si>
+    <t>uqtfjqhpydy;.</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Docked (Engaged)</t>
+  </si>
+  <si>
+    <t>Docked (Not Engaged)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Offense</t>
+  </si>
+  <si>
+    <t>Not Sure</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>truman</t>
+  </si>
+  <si>
+    <t>oenhtuohtnecroei</t>
+  </si>
+  <si>
+    <t>;ekuehiuhehi</t>
+  </si>
+  <si>
     <t>ben</t>
   </si>
   <si>
@@ -108,45 +164,6 @@
   </si>
   <si>
     <t>ontehu</t>
-  </si>
-  <si>
-    <t>Defense Percentage</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Mid</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Docked (Engaged)</t>
-  </si>
-  <si>
-    <t>Docked (Not Engaged)</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Offense</t>
-  </si>
-  <si>
-    <t>Not Sure</t>
-  </si>
-  <si>
-    <t>Defense</t>
-  </si>
-  <si>
-    <t>Day 1</t>
-  </si>
-  <si>
-    <t>Day 2</t>
   </si>
 </sst>
 </file>
@@ -259,7 +276,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>1787!$AX$8</c:f>
+              <c:f>0!$AX$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -280,15 +297,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>1787!$AY$1:$AY$2</c:f>
+              <c:f>0!$AY$1:$AY$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,6 +392,935 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Teleoperated Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>27!$BD$1:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>27!$BE$1:$BE$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Defense Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>27!$BF$1:$BF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Offense</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Not Sure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Defense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>27!$BG$1:$BG$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Day 1 vs. Day 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>27!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>27!$BH$1:$BH$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>27!$BI$1:$BI$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>131.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50120001"/>
+        <c:axId val="50120002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50120001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50120002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>1787!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>1787!$AY$1:$AY$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50130001"/>
+        <c:axId val="50130002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50130001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Match #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50130002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Placement of Game Pieces</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>1787!$AZ$1:$AZ$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1787!$BA$1:$BA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Autonomous Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>1787!$BB$1:$BB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1787!$BC$1:$BC$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Teleoperated Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>1787!$BD$1:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1787!$BE$1:$BE$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Defense Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>1787!$BF$1:$BF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Offense</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Not Sure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Defense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1787!$BG$1:$BG$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Day 1 vs. Day 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>1787!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>1787!$BH$1:$BH$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1787!$BI$1:$BI$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50180001"/>
+        <c:axId val="50180002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50180001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50180002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50180002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50180001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
@@ -406,7 +1352,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>1787!$AZ$1:$AZ$3</c:f>
+              <c:f>0!$AZ$1:$AZ$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -423,15 +1369,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1787!$BA$1:$BA$3</c:f>
+              <c:f>0!$BA$1:$BA$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -498,7 +1444,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>1787!$BB$1:$BB$3</c:f>
+              <c:f>0!$BB$1:$BB$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -515,18 +1461,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1787!$BC$1:$BC$3</c:f>
+              <c:f>0!$BC$1:$BC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +1536,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>1787!$BD$1:$BD$3</c:f>
+              <c:f>0!$BD$1:$BD$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -607,15 +1553,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1787!$BE$1:$BE$3</c:f>
+              <c:f>0!$BE$1:$BE$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -682,7 +1628,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>1787!$BF$1:$BF$3</c:f>
+              <c:f>0!$BF$1:$BF$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -699,7 +1645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1787!$BG$1:$BG$3</c:f>
+              <c:f>0!$BG$1:$BG$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -775,7 +1721,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>1787!$AX$8</c:f>
+              <c:f>0!$AX$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -786,7 +1732,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>1787!$BH$1:$BH$2</c:f>
+              <c:f>0!$BH$1:$BH$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -800,12 +1746,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1787!$BI$1:$BI$2</c:f>
+              <c:f>0!$BI$1:$BI$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -847,6 +1793,337 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>27!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>27!$AY$1:$AY$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50070001"/>
+        <c:axId val="50070002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50070001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Match #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50070002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Placement of Game Pieces</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>27!$AZ$1:$AZ$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>27!$BA$1:$BA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Autonomous Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>27!$BB$1:$BB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>27!$BC$1:$BC$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -898,8 +2175,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -958,8 +2235,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1018,8 +2295,378 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1328,7 +2975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1395,42 +3042,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1787</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
-        <v>42</v>
+        <v>131.5</v>
       </c>
       <c r="D2">
-        <v>1787</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F2">
-        <v>1787</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>21.5</v>
       </c>
       <c r="H2">
-        <v>1787</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J2">
-        <v>1787</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>-64</v>
+        <v>26</v>
       </c>
       <c r="L2">
-        <v>1787</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
         <v>50</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1787</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>1787</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1787</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>1787</v>
+      </c>
+      <c r="I3" s="1">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-7</v>
+      </c>
+      <c r="L3">
+        <v>1787</v>
+      </c>
+      <c r="M3" s="1">
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1787</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-64</v>
+      </c>
+      <c r="L4">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>1787</v>
       </c>
     </row>
@@ -1441,7 +3176,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI8"/>
+  <dimension ref="A1:BI10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1460,6 +3195,7 @@
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
@@ -1507,37 +3243,37 @@
         <v>26</v>
       </c>
       <c r="AY1">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AZ1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BA1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BB1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BC1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BE1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BG1">
         <v>1</v>
       </c>
       <c r="BH1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BI1">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:61">
@@ -1545,22 +3281,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1569,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -1584,34 +3320,34 @@
         <v>29</v>
       </c>
       <c r="AY2">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BC2">
         <v>0</v>
       </c>
       <c r="BD2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BG2">
         <v>1</v>
       </c>
       <c r="BH2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -1622,37 +3358,37 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -1661,25 +3397,25 @@
         <v>30</v>
       </c>
       <c r="AZ3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BA3">
         <v>0</v>
       </c>
       <c r="BB3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BE3">
         <v>1</v>
       </c>
       <c r="BF3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1693,34 +3429,34 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>8.5</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>23.5</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -1731,7 +3467,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1739,13 +3475,693 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8">
-        <v>-64</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
       <c r="AX8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61">
+      <c r="A9">
+        <v>-7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61">
+      <c r="A10">
+        <v>-64</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BI10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY1">
+        <v>135</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>32</v>
+      </c>
+      <c r="BA1">
+        <v>22</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC1">
+        <v>2</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE1">
+        <v>2</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG1">
+        <v>0</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI1">
+        <v>131.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>135</v>
+      </c>
+      <c r="D2">
+        <v>96</v>
+      </c>
+      <c r="E2">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>85</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>46</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY2">
+        <v>128</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA2">
+        <v>13</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG2">
+        <v>2</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>128</v>
+      </c>
+      <c r="D3">
+        <v>89</v>
+      </c>
+      <c r="E3">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>65</v>
+      </c>
+      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>48</v>
+      </c>
+      <c r="L3">
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA3">
+        <v>8</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>131.5</v>
+      </c>
+      <c r="D4">
+        <v>92.5</v>
+      </c>
+      <c r="E4">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>21.5</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>19.5</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>44</v>
+      </c>
+      <c r="L4">
+        <v>38.5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61">
+      <c r="A9">
+        <v>-7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61">
+      <c r="A10">
+        <v>-64</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BI10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY1">
+        <v>77</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA1">
+        <v>10</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC1">
+        <v>1</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE1">
+        <v>1</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG1">
+        <v>1</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY2">
+        <v>13</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>17.5</v>
+      </c>
+      <c r="L4">
+        <v>7.5</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61">
+      <c r="A9">
+        <v>-7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61">
+      <c r="A10">
+        <v>-64</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -115,6 +115,12 @@
     <t>Points</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
@@ -148,6 +154,72 @@
     <t>Day 2</t>
   </si>
   <si>
+    <t>Pit Scouting Info</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>email@orangecsd.org</t>
+  </si>
+  <si>
+    <t>Team Number</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Will do right after I finish this form</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>15 m/s</t>
+  </si>
+  <si>
+    <t>Drivetrain</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Scoring Capabilities</t>
+  </si>
+  <si>
+    <t>Score cones, Score cubes</t>
+  </si>
+  <si>
+    <t>Leave Community?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Starting Position</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Scoring Method</t>
+  </si>
+  <si>
+    <t>Push with bumpers</t>
+  </si>
+  <si>
+    <t>Defense?</t>
+  </si>
+  <si>
+    <t>Other Information</t>
+  </si>
+  <si>
+    <t>aoecirkra.u89xfa.r9ig.pnuda,oc.ria.pd</t>
+  </si>
+  <si>
     <t>truman</t>
   </si>
   <si>
@@ -157,6 +229,27 @@
     <t>;ekuehiuhehi</t>
   </si>
   <si>
+    <t>test@orangecsd.org</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Swerve</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Shoot at target</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>ben</t>
   </si>
   <si>
@@ -164,6 +257,21 @@
   </si>
   <si>
     <t>ontehu</t>
+  </si>
+  <si>
+    <t>23dsuh@orangecsd.org</t>
+  </si>
+  <si>
+    <t>7 m/s</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Place on target</t>
+  </si>
+  <si>
+    <t>good robot</t>
   </si>
 </sst>
 </file>
@@ -228,19 +336,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD580"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD580"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -2981,13 +3166,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3170,19 +3355,62 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:O100">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1787</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G4">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I4">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K4">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M4">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O4">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI10"/>
+  <sheetPr>
+    <tabColor rgb="FFFFA500"/>
+  </sheetPr>
+  <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -3246,31 +3474,31 @@
         <v>0</v>
       </c>
       <c r="AZ1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BA1">
         <v>1</v>
       </c>
       <c r="BB1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BC1">
         <v>0</v>
       </c>
       <c r="BD1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BE1">
         <v>0</v>
       </c>
       <c r="BF1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BG1">
         <v>1</v>
       </c>
       <c r="BH1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BI1">
         <v>13</v>
@@ -3323,31 +3551,31 @@
         <v>26</v>
       </c>
       <c r="AZ2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BA2">
         <v>2</v>
       </c>
       <c r="BB2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BC2">
         <v>0</v>
       </c>
       <c r="BD2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BE2">
         <v>1</v>
       </c>
       <c r="BF2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BG2">
         <v>1</v>
       </c>
       <c r="BH2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -3397,25 +3625,25 @@
         <v>30</v>
       </c>
       <c r="AZ3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BA3">
         <v>0</v>
       </c>
       <c r="BB3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BC3">
         <v>2</v>
       </c>
       <c r="BD3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BE3">
         <v>1</v>
       </c>
       <c r="BF3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -3463,44 +3691,184 @@
       </c>
     </row>
     <row r="7" spans="1:61">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:61">
-      <c r="A8">
-        <v>26</v>
+      <c r="A8" t="s">
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:61">
-      <c r="A9">
-        <v>-7</v>
+      <c r="A9" t="s">
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:61">
-      <c r="A10">
-        <v>-64</v>
+      <c r="A10" t="s">
+        <v>6</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15">
         <v>50</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14:C14">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:P1">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3508,13 +3876,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI10"/>
+  <sheetPr>
+    <tabColor rgb="FFBF6940"/>
+  </sheetPr>
+  <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -3578,31 +3949,31 @@
         <v>135</v>
       </c>
       <c r="AZ1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BA1">
         <v>22</v>
       </c>
       <c r="BB1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BC1">
         <v>2</v>
       </c>
       <c r="BD1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BE1">
         <v>2</v>
       </c>
       <c r="BF1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BG1">
         <v>0</v>
       </c>
       <c r="BH1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BI1">
         <v>131.5</v>
@@ -3646,40 +4017,40 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AY2">
         <v>128</v>
       </c>
       <c r="AZ2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BA2">
         <v>13</v>
       </c>
       <c r="BB2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BC2">
         <v>0</v>
       </c>
       <c r="BD2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BE2">
         <v>0</v>
       </c>
       <c r="BF2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BG2">
         <v>2</v>
       </c>
       <c r="BH2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -3726,28 +4097,28 @@
         <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="AZ3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BA3">
         <v>8</v>
       </c>
       <c r="BB3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BC3">
         <v>0</v>
       </c>
       <c r="BD3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BE3">
         <v>0</v>
       </c>
       <c r="BF3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -3795,44 +4166,184 @@
       </c>
     </row>
     <row r="7" spans="1:61">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:61">
-      <c r="A8">
-        <v>26</v>
+      <c r="A8" t="s">
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:61">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61">
+      <c r="A15">
         <v>-7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:61">
-      <c r="A10">
-        <v>-64</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14:C14">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:P1">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3840,13 +4351,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI10"/>
+  <sheetPr>
+    <tabColor rgb="FF808080"/>
+  </sheetPr>
+  <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -3910,31 +4424,31 @@
         <v>77</v>
       </c>
       <c r="AZ1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BA1">
         <v>10</v>
       </c>
       <c r="BB1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BC1">
         <v>1</v>
       </c>
       <c r="BD1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BE1">
         <v>1</v>
       </c>
       <c r="BF1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BG1">
         <v>1</v>
       </c>
       <c r="BH1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BI1">
         <v>45</v>
@@ -3981,37 +4495,37 @@
         <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AY2">
         <v>13</v>
       </c>
       <c r="AZ2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BA2">
         <v>0</v>
       </c>
       <c r="BB2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BC2">
         <v>0</v>
       </c>
       <c r="BD2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BE2">
         <v>0</v>
       </c>
       <c r="BF2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BG2">
         <v>1</v>
       </c>
       <c r="BH2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -4055,31 +4569,31 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AZ3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BA3">
         <v>0</v>
       </c>
       <c r="BB3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BC3">
         <v>1</v>
       </c>
       <c r="BD3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BE3">
         <v>1</v>
       </c>
       <c r="BF3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -4127,44 +4641,184 @@
       </c>
     </row>
     <row r="7" spans="1:61">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:61">
-      <c r="A8">
-        <v>26</v>
+      <c r="A8" t="s">
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:61">
-      <c r="A9">
-        <v>-7</v>
+      <c r="A9" t="s">
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:61">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61">
+      <c r="A15">
         <v>-64</v>
       </c>
-      <c r="B10">
+      <c r="B15">
         <v>50</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14:C14">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:P1">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>aoecirkra.u89xfa.r9ig.pnuda,oc.ria.pd</t>
+  </si>
+  <si>
+    <t>Matches:</t>
   </si>
   <si>
     <t>truman</t>
@@ -352,7 +355,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -380,32 +383,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD580"/>
         </patternFill>
       </fill>
       <border>
@@ -3427,47 +3404,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AY1">
@@ -3734,13 +3714,13 @@
       </c>
     </row>
     <row r="14" spans="1:61">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3859,16 +3839,6 @@
   <mergeCells count="1">
     <mergeCell ref="A18:C18"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14:C14">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>-99999999999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:P1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>-99999999999</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3902,47 +3872,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AY1">
@@ -4017,10 +3990,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AY2">
         <v>128</v>
@@ -4097,7 +4070,7 @@
         <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AZ3" t="s">
         <v>36</v>
@@ -4209,13 +4182,13 @@
       </c>
     </row>
     <row r="14" spans="1:61">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4239,7 +4212,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4255,7 +4228,7 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4271,7 +4244,7 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4279,7 +4252,7 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4303,7 +4276,7 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4311,7 +4284,7 @@
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4319,7 +4292,7 @@
         <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4334,16 +4307,6 @@
   <mergeCells count="1">
     <mergeCell ref="A18:C18"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14:C14">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>-99999999999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:P1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>-99999999999</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4377,47 +4340,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AY1">
@@ -4495,7 +4461,7 @@
         <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AY2">
         <v>13</v>
@@ -4569,10 +4535,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AZ3" t="s">
         <v>36</v>
@@ -4684,13 +4650,13 @@
       </c>
     </row>
     <row r="14" spans="1:61">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4714,7 +4680,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4730,7 +4696,7 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4746,7 +4712,7 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4754,7 +4720,7 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4778,7 +4744,7 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4786,7 +4752,7 @@
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4794,7 +4760,7 @@
         <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4802,23 +4768,13 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A18:C18"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14:C14">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>-99999999999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:P1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>-99999999999</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,16 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="rankings" sheetId="1" r:id="rId1"/>
-    <sheet name="0" sheetId="2" r:id="rId2"/>
-    <sheet name="27" sheetId="3" r:id="rId3"/>
-    <sheet name="1787" sheetId="4" r:id="rId4"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="8" sheetId="6" r:id="rId6"/>
+    <sheet name="430" sheetId="7" r:id="rId7"/>
+    <sheet name="2558" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -100,16 +104,25 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>daniel</t>
+    <t>Logan kaplan</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Daniel R.</t>
   </si>
   <si>
-    <t>yduihuih</t>
+    <t>Logan Kaplan</t>
   </si>
   <si>
-    <t>uqtfjqhpydy;.</t>
+    <t>Adasda</t>
+  </si>
+  <si>
+    <t>Dropped Cones on middle rung</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t>Dropped pieces during auto</t>
   </si>
   <si>
     <t>Points</t>
@@ -154,127 +167,73 @@
     <t>Day 2</t>
   </si>
   <si>
-    <t>Pit Scouting Info</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>email@orangecsd.org</t>
-  </si>
-  <si>
-    <t>Team Number</t>
-  </si>
-  <si>
-    <t>Picture</t>
-  </si>
-  <si>
-    <t>Will do right after I finish this form</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>15 m/s</t>
-  </si>
-  <si>
-    <t>Drivetrain</t>
-  </si>
-  <si>
-    <t>Tank</t>
-  </si>
-  <si>
-    <t>Scoring Capabilities</t>
-  </si>
-  <si>
-    <t>Score cones, Score cubes</t>
-  </si>
-  <si>
-    <t>Leave Community?</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Starting Position</t>
-  </si>
-  <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>Scoring Method</t>
-  </si>
-  <si>
-    <t>Push with bumpers</t>
-  </si>
-  <si>
-    <t>Defense?</t>
-  </si>
-  <si>
-    <t>Other Information</t>
-  </si>
-  <si>
-    <t>aoecirkra.u89xfa.r9ig.pnuda,oc.ria.pd</t>
-  </si>
-  <si>
     <t>Matches:</t>
   </si>
   <si>
-    <t>truman</t>
+    <t>Noah</t>
   </si>
   <si>
-    <t>oenhtuohtnecroei</t>
+    <t>Eden Austin</t>
   </si>
   <si>
-    <t>;ekuehiuhehi</t>
+    <t xml:space="preserve">Michael </t>
   </si>
   <si>
-    <t>test@orangecsd.org</t>
+    <t>Good job</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>Very fast, smooth</t>
   </si>
   <si>
-    <t>10</t>
+    <t xml:space="preserve">Thumbs up </t>
   </si>
   <si>
-    <t>Swerve</t>
+    <t>Smooth</t>
   </si>
   <si>
-    <t>Left</t>
+    <t xml:space="preserve">Ben </t>
   </si>
   <si>
-    <t>Shoot at target</t>
+    <t xml:space="preserve">Eden </t>
   </si>
   <si>
-    <t>No</t>
+    <t xml:space="preserve">Smooth </t>
   </si>
   <si>
-    <t>ben</t>
+    <t xml:space="preserve">He was him </t>
   </si>
   <si>
-    <t>oeunthoentuhoenthutnoeu</t>
+    <t>Still fast, did very well</t>
   </si>
   <si>
-    <t>ontehu</t>
+    <t xml:space="preserve">Charlie Loebl </t>
   </si>
   <si>
-    <t>23dsuh@orangecsd.org</t>
+    <t xml:space="preserve">Threw a lot of pieces </t>
   </si>
   <si>
-    <t>7 m/s</t>
+    <t>Ben lilly</t>
   </si>
   <si>
-    <t>Right</t>
+    <t>Pure muscle and agression, an absolute beast of a bot. MUST team with to win.</t>
   </si>
   <si>
-    <t>Place on target</t>
+    <t>The greatest robot ive ever seen</t>
   </si>
   <si>
-    <t>good robot</t>
+    <t>Brianne</t>
+  </si>
+  <si>
+    <t>very slay, got bullied by a defensive bot</t>
+  </si>
+  <si>
+    <t>got bullied by defense</t>
+  </si>
+  <si>
+    <t>grakonkle spurtzzz</t>
+  </si>
+  <si>
+    <t>😇🤪😎😅😌🤪</t>
   </si>
 </sst>
 </file>
@@ -339,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,7 +309,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +396,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>0!$AX$8</c:f>
+              <c:f>1!$AX$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -459,15 +417,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>0!$AY$1:$AY$2</c:f>
+              <c:f>1!$AY$1:$AY$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,7 +549,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>27!$BD$1:$BD$3</c:f>
+              <c:f>3!$BD$1:$BD$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -602,12 +566,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>27!$BE$1:$BE$3</c:f>
+              <c:f>3!$BE$1:$BE$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -677,7 +641,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>27!$BF$1:$BF$3</c:f>
+              <c:f>3!$BF$1:$BF$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -694,7 +658,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>27!$BG$1:$BG$3</c:f>
+              <c:f>3!$BG$1:$BG$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -702,7 +666,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -770,7 +734,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>27!$AX$8</c:f>
+              <c:f>3!$AX$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -781,7 +745,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>27!$BH$1:$BH$2</c:f>
+              <c:f>3!$BH$1:$BH$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -795,12 +759,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>27!$BI$1:$BI$2</c:f>
+              <c:f>3!$BI$1:$BI$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>131.5</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -884,7 +848,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>1787!$AX$8</c:f>
+              <c:f>4!$AX$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -905,15 +869,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>1787!$AY$1:$AY$2</c:f>
+              <c:f>4!$AY$1:$AY$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,7 +998,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>1787!$AZ$1:$AZ$3</c:f>
+              <c:f>4!$AZ$1:$AZ$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1048,18 +1015,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1787!$BA$1:$BA$3</c:f>
+              <c:f>4!$BA$1:$BA$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,7 +1090,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>1787!$BB$1:$BB$3</c:f>
+              <c:f>4!$BB$1:$BB$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1140,7 +1107,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1787!$BC$1:$BC$3</c:f>
+              <c:f>4!$BC$1:$BC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1151,7 +1118,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1215,7 +1182,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>1787!$BD$1:$BD$3</c:f>
+              <c:f>4!$BD$1:$BD$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1232,12 +1199,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1787!$BE$1:$BE$3</c:f>
+              <c:f>4!$BE$1:$BE$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1307,7 +1274,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>1787!$BF$1:$BF$3</c:f>
+              <c:f>4!$BF$1:$BF$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1324,12 +1291,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1787!$BG$1:$BG$3</c:f>
+              <c:f>4!$BG$1:$BG$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1400,7 +1367,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>1787!$AX$8</c:f>
+              <c:f>4!$AX$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1411,7 +1378,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>1787!$BH$1:$BH$2</c:f>
+              <c:f>4!$BH$1:$BH$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1425,12 +1392,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1787!$BI$1:$BI$2</c:f>
+              <c:f>4!$BI$1:$BI$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>160.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1483,6 +1450,150 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>5!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>5!$AY$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50190001"/>
+        <c:axId val="50190002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50190001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Match #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50190002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50190002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50190001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
@@ -1514,7 +1625,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>0!$AZ$1:$AZ$3</c:f>
+              <c:f>1!$AZ$1:$AZ$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1531,7 +1642,99 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>0!$BA$1:$BA$3</c:f>
+              <c:f>1!$BA$1:$BA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Placement of Game Pieces</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>5!$AZ$1:$AZ$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>5!$BA$1:$BA$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1539,7 +1742,913 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Autonomous Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>5!$BB$1:$BB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>5!$BC$1:$BC$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Teleoperated Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>5!$BD$1:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>5!$BE$1:$BE$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Defense Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>5!$BF$1:$BF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Offense</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Not Sure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Defense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>5!$BG$1:$BG$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Day 1 vs. Day 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>5!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>5!$BH$1:$BH$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>5!$BI$1:$BI$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50240001"/>
+        <c:axId val="50240002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50240001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50240002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50240002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50240001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>8!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>8!$AY$1:$AY$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50250001"/>
+        <c:axId val="50250002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50250001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Match #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50250002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50250002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50250001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Placement of Game Pieces</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>8!$AZ$1:$AZ$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>8!$BA$1:$BA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Autonomous Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>8!$BB$1:$BB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>8!$BC$1:$BC$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Teleoperated Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>8!$BD$1:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>8!$BE$1:$BE$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Defense Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>8!$BF$1:$BF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Offense</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Not Sure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Defense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>8!$BG$1:$BG$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1606,7 +2715,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>0!$BB$1:$BB$3</c:f>
+              <c:f>1!$BB$1:$BB$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1623,7 +2732,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>0!$BC$1:$BC$3</c:f>
+              <c:f>1!$BC$1:$BC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1634,7 +2743,1080 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Day 1 vs. Day 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>8!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>8!$BH$1:$BH$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>8!$BI$1:$BI$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50300001"/>
+        <c:axId val="50300002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50300001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50300002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50300002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50300001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>430!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>430!$AY$1:$AY$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50310001"/>
+        <c:axId val="50310002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50310001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Match #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50310002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50310002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50310001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Placement of Game Pieces</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>430!$AZ$1:$AZ$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>430!$BA$1:$BA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Autonomous Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>430!$BB$1:$BB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>430!$BC$1:$BC$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Teleoperated Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>430!$BD$1:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>430!$BE$1:$BE$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Defense Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>430!$BF$1:$BF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Offense</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Not Sure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Defense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>430!$BG$1:$BG$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Day 1 vs. Day 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>430!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>430!$BH$1:$BH$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>430!$BI$1:$BI$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50360001"/>
+        <c:axId val="50360002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50360001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50360002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50360002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50360001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>2558!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>2558!$AY$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50370001"/>
+        <c:axId val="50370002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50370001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Match #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50370002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50370002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50370001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Placement of Game Pieces</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>2558!$AZ$1:$AZ$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>2558!$BA$1:$BA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Autonomous Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>2558!$BB$1:$BB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>2558!$BC$1:$BC$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,7 +3880,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>0!$BD$1:$BD$3</c:f>
+              <c:f>1!$BD$1:$BD$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1715,18 +3897,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>0!$BE$1:$BE$3</c:f>
+              <c:f>1!$BE$1:$BE$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,6 +3930,305 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Teleoperated Balancing Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>2558!$BD$1:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Docked (Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docked (Not Engaged)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>2558!$BE$1:$BE$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Defense Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>2558!$BF$1:$BF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Offense</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Not Sure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Defense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>2558!$BG$1:$BG$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Day 1 vs. Day 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>2558!$AX$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>2558!$BH$1:$BH$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>2558!$BI$1:$BI$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50420001"/>
+        <c:axId val="50420002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50420001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50420002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50420002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50420001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1790,7 +4271,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>0!$BF$1:$BF$3</c:f>
+              <c:f>1!$BF$1:$BF$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1807,7 +4288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>0!$BG$1:$BG$3</c:f>
+              <c:f>1!$BG$1:$BG$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1815,10 +4296,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1883,7 +4364,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>0!$AX$8</c:f>
+              <c:f>1!$AX$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1894,7 +4375,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>0!$BH$1:$BH$2</c:f>
+              <c:f>1!$BH$1:$BH$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1908,12 +4389,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>0!$BI$1:$BI$2</c:f>
+              <c:f>1!$BI$1:$BI$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>25.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1997,7 +4478,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>27!$AX$8</c:f>
+              <c:f>3!$AX$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2018,15 +4499,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>27!$AY$1:$AY$2</c:f>
+              <c:f>3!$AY$1:$AY$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128</c:v>
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,7 +4631,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>27!$AZ$1:$AZ$3</c:f>
+              <c:f>3!$AZ$1:$AZ$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2161,18 +4648,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>27!$BA$1:$BA$3</c:f>
+              <c:f>3!$BA$1:$BA$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,7 +4723,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>27!$BB$1:$BB$3</c:f>
+              <c:f>3!$BB$1:$BB$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2253,18 +4740,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>27!$BC$1:$BC$3</c:f>
+              <c:f>3!$BC$1:$BC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2298,6 +4785,746 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2482,7 +5709,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2667,19 +5894,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2703,13 +5930,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2733,13 +5960,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2763,13 +5990,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2793,13 +6020,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2823,13 +6050,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3137,7 +6364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3204,43 +6431,43 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>2558</v>
       </c>
       <c r="C2" s="1">
-        <v>131.5</v>
+        <v>439</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>2558</v>
       </c>
       <c r="E2" s="1">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>2558</v>
       </c>
       <c r="G2" s="1">
-        <v>21.5</v>
+        <v>54</v>
       </c>
       <c r="H2">
-        <v>27</v>
+        <v>2558</v>
       </c>
       <c r="I2" s="1">
         <v>22</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" s="1">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3248,43 +6475,43 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1787</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>45</v>
+        <v>160.67</v>
       </c>
       <c r="D3">
-        <v>1787</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>15</v>
+        <v>84.33</v>
       </c>
       <c r="F3">
-        <v>1787</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>21.33</v>
       </c>
       <c r="H3">
-        <v>1787</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1">
-        <v>11</v>
+        <v>10.67</v>
       </c>
       <c r="J3">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>-7</v>
+        <v>1.7</v>
       </c>
       <c r="L3">
-        <v>1787</v>
+        <v>8</v>
       </c>
       <c r="M3" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3292,43 +6519,213 @@
         <v>3</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="L4">
+        <v>2558</v>
+      </c>
+      <c r="M4" s="1">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>430</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>66.67</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25.25</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>430</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-5</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>430</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="F7">
+        <v>430</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>430</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-      <c r="D4">
+      <c r="N7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>2558</v>
+      </c>
+      <c r="L8">
+        <v>430</v>
+      </c>
+      <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>1787</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-64</v>
-      </c>
-      <c r="L4">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1787</v>
+      <c r="N8">
+        <v>2558</v>
       </c>
     </row>
   </sheetData>
@@ -3337,37 +6734,37 @@
       <formula>1787</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4">
+  <conditionalFormatting sqref="C2:C8">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4">
+  <conditionalFormatting sqref="E2:E8">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G8">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+  <conditionalFormatting sqref="I2:I8">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
+  <conditionalFormatting sqref="K2:K8">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M4">
+  <conditionalFormatting sqref="M2:M8">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O4">
+  <conditionalFormatting sqref="O2:O8">
     <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
@@ -3381,13 +6778,13 @@
   <sheetPr>
     <tabColor rgb="FFFFA500"/>
   </sheetPr>
-  <dimension ref="A1:BI30"/>
+  <dimension ref="A1:BI17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -3405,7 +6802,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -3451,37 +6848,37 @@
         <v>26</v>
       </c>
       <c r="AY1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AZ1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BA1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BC1">
         <v>0</v>
       </c>
       <c r="BD1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BE1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BG1">
         <v>1</v>
       </c>
       <c r="BH1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BI1">
-        <v>13</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="2" spans="1:61">
@@ -3489,73 +6886,73 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BA2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BC2">
         <v>0</v>
       </c>
       <c r="BD2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BE2">
         <v>1</v>
       </c>
       <c r="BF2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BG2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -3563,282 +6960,272 @@
     </row>
     <row r="3" spans="1:61">
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-      <c r="E3">
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
       <c r="L3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="AY3">
+        <v>26</v>
       </c>
       <c r="AZ3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BA3">
+        <v>4</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC3">
+        <v>4</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE3">
         <v>0</v>
       </c>
-      <c r="BB3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC3">
-        <v>2</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE3">
+      <c r="BF3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG3">
         <v>1</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>2.5</v>
-      </c>
-      <c r="M4">
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>25.25</v>
+      </c>
+      <c r="D6">
+        <v>22.5</v>
+      </c>
+      <c r="E6">
+        <v>2.75</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>6.25</v>
+      </c>
+      <c r="I6">
+        <v>7.25</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>12.5</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:61">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
+      <c r="M6">
+        <v>1.75</v>
       </c>
     </row>
     <row r="8" spans="1:61">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
       <c r="AX8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:61">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:61">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:61">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>3</v>
+      <c r="B13">
+        <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:61">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
-      <c r="A15">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1.7</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A18:C18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3847,15 +7234,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFBF6940"/>
+    <tabColor rgb="FFEA8815"/>
   </sheetPr>
-  <dimension ref="A1:BI30"/>
+  <dimension ref="A1:BI17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -3873,7 +7260,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -3919,111 +7306,111 @@
         <v>26</v>
       </c>
       <c r="AY1">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="AZ1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BA1">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="BB1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BC1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BE1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BG1">
         <v>0</v>
       </c>
       <c r="BH1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BI1">
-        <v>131.5</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="2" spans="1:61">
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>135</v>
-      </c>
-      <c r="D2">
-        <v>96</v>
-      </c>
-      <c r="E2">
-        <v>39</v>
-      </c>
-      <c r="F2">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>85</v>
-      </c>
-      <c r="I2">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>40</v>
-      </c>
-      <c r="L2">
-        <v>46</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="AY2">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="AZ2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BA2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BB2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BC2">
         <v>0</v>
       </c>
       <c r="BD2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BE2">
         <v>0</v>
       </c>
       <c r="BF2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BG2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -4031,282 +7418,272 @@
     </row>
     <row r="3" spans="1:61">
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>128</v>
-      </c>
-      <c r="D3">
-        <v>89</v>
-      </c>
-      <c r="E3">
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY3">
+        <v>28</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>39</v>
       </c>
-      <c r="F3">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>65</v>
-      </c>
-      <c r="I3">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>48</v>
-      </c>
-      <c r="L3">
-        <v>31</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>36</v>
-      </c>
       <c r="BA3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BE3">
         <v>0</v>
       </c>
       <c r="BF3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BG3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C4">
-        <v>131.5</v>
-      </c>
-      <c r="D4">
-        <v>92.5</v>
-      </c>
-      <c r="E4">
-        <v>39</v>
-      </c>
-      <c r="F4">
-        <v>21.5</v>
-      </c>
-      <c r="G4">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>75</v>
-      </c>
-      <c r="I4">
-        <v>19.5</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>44</v>
-      </c>
-      <c r="L4">
-        <v>38.5</v>
-      </c>
-      <c r="M4">
+      <c r="C6">
+        <v>31.25</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>4.25</v>
+      </c>
+      <c r="F6">
+        <v>4.75</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10.25</v>
+      </c>
+      <c r="I6">
+        <v>8.75</v>
+      </c>
+      <c r="J6">
+        <v>1.5</v>
+      </c>
+      <c r="K6">
+        <v>15.5</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:61">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
+      <c r="M6">
+        <v>1.25</v>
       </c>
     </row>
     <row r="8" spans="1:61">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
       <c r="AX8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:61">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:61">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:61">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B13">
+        <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:61">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
-      <c r="A15">
-        <v>-7</v>
-      </c>
-      <c r="B15">
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>-0.3</v>
+      </c>
+      <c r="B17">
         <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A18:C18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4315,15 +7692,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF808080"/>
+    <tabColor rgb="FFD5742B"/>
   </sheetPr>
-  <dimension ref="A1:BI30"/>
+  <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -4341,7 +7718,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -4387,37 +7764,37 @@
         <v>26</v>
       </c>
       <c r="AY1">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="AZ1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BA1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BB1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BC1">
         <v>1</v>
       </c>
       <c r="BD1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BE1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BG1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BI1">
-        <v>45</v>
+        <v>160.6666666666667</v>
       </c>
     </row>
     <row r="2" spans="1:61">
@@ -4425,73 +7802,794 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY2">
+        <v>439</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA2">
+        <v>24</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>439</v>
+      </c>
+      <c r="D3">
+        <v>190</v>
+      </c>
+      <c r="E3">
+        <v>249</v>
+      </c>
+      <c r="F3">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>198</v>
+      </c>
+      <c r="I3">
+        <v>126</v>
+      </c>
+      <c r="J3">
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <v>207</v>
+      </c>
+      <c r="L3">
+        <v>207</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY3">
+        <v>30</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA3">
+        <v>21</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC3">
+        <v>2</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>160.67</v>
+      </c>
+      <c r="D5">
+        <v>76.33</v>
+      </c>
+      <c r="E5">
+        <v>84.33</v>
+      </c>
+      <c r="F5">
+        <v>21.33</v>
+      </c>
+      <c r="G5">
+        <v>10.67</v>
+      </c>
+      <c r="H5">
+        <v>67.67</v>
+      </c>
+      <c r="I5">
+        <v>49.33</v>
+      </c>
+      <c r="J5">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>74.33</v>
+      </c>
+      <c r="L5">
+        <v>74.67</v>
+      </c>
+      <c r="M5">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61">
+      <c r="A16">
+        <v>8.5</v>
+      </c>
+      <c r="B16">
+        <v>66.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFBF6940"/>
+  </sheetPr>
+  <dimension ref="A1:BI14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY1">
         <v>27</v>
       </c>
+      <c r="AZ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA1">
+        <v>1</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1">
+        <v>0</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE1">
+        <v>1</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG1">
+        <v>1</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
       <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
         <v>8</v>
       </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA3">
+        <v>3</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61">
+      <c r="B14">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFAA6855"/>
+  </sheetPr>
+  <dimension ref="A1:BI15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY1">
+        <v>13</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA1">
+        <v>0</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1">
+        <v>0</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE1">
+        <v>2</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG1">
+        <v>2</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>25</v>
-      </c>
-      <c r="L2">
-        <v>15</v>
-      </c>
       <c r="M2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="AY2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BA2">
         <v>0</v>
       </c>
       <c r="BB2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BC2">
         <v>0</v>
       </c>
       <c r="BD2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BE2">
         <v>0</v>
       </c>
       <c r="BF2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -4502,64 +8600,64 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
       <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC3">
+        <v>2</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC3">
-        <v>1</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE3">
-        <v>1</v>
-      </c>
       <c r="BF3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -4573,45 +8671,45 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>12.5</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K4">
-        <v>17.5</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:61">
@@ -4619,10 +8717,10 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -4630,7 +8728,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:61">
@@ -4638,7 +8736,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:61">
@@ -4646,7 +8744,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:61">
@@ -4662,119 +8760,687 @@
     </row>
     <row r="15" spans="1:61">
       <c r="A15">
-        <v>-64</v>
+        <v>-1</v>
       </c>
       <c r="B15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22">
         <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A18:C18"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF956F6B"/>
+  </sheetPr>
+  <dimension ref="A1:BI15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY1">
+        <v>22</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA1">
+        <v>0</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1">
+        <v>0</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE1">
+        <v>2</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG1">
+        <v>0</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY2">
+        <v>17</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA2">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG2">
+        <v>2</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC3">
+        <v>2</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>19.5</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>3.5</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>1.5</v>
+      </c>
+      <c r="K4">
+        <v>4.5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61">
+      <c r="A15">
+        <v>-5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF808080"/>
+  </sheetPr>
+  <dimension ref="A1:BI14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY1">
+        <v>439</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA1">
+        <v>18</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1">
+        <v>1</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE1">
+        <v>1</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG1">
+        <v>1</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>439</v>
+      </c>
+      <c r="D2">
+        <v>190</v>
+      </c>
+      <c r="E2">
+        <v>249</v>
+      </c>
+      <c r="F2">
+        <v>54</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>198</v>
+      </c>
+      <c r="I2">
+        <v>126</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="K2">
+        <v>207</v>
+      </c>
+      <c r="L2">
+        <v>207</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA2">
+        <v>18</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>439</v>
+      </c>
+      <c r="D3">
+        <v>190</v>
+      </c>
+      <c r="E3">
+        <v>249</v>
+      </c>
+      <c r="F3">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>198</v>
+      </c>
+      <c r="I3">
+        <v>126</v>
+      </c>
+      <c r="J3">
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <v>207</v>
+      </c>
+      <c r="L3">
+        <v>207</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA3">
+        <v>18</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61">
+      <c r="B14">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
